--- a/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0CDB5-92AB-854E-A57A-F13C01F00F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C53F8-0A59-D74D-B90D-022CDA96A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="3" r:id="rId2"/>
     <sheet name="Uncontested PIVOT" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="RESULTS" sheetId="5" r:id="rId4"/>
+    <sheet name="UNCONTESTED" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
@@ -24,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="172">
   <si>
     <t>Votes</t>
   </si>
@@ -561,6 +562,9 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5628,7 +5632,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K106" sqref="K106"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10118,7 +10122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C173EB5C-2F3C-F445-895E-90BA9F5B864E}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11762,4 +11766,3374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E89F1-314C-BC44-A131-4DF725BADCA8}">
+  <dimension ref="A1:J107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108:XFD110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2">
+        <v>139705</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>21396</v>
+      </c>
+      <c r="G2">
+        <v>161101</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>178171</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20175</v>
+      </c>
+      <c r="G3">
+        <v>198346</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>153735</v>
+      </c>
+      <c r="F4">
+        <v>12574</v>
+      </c>
+      <c r="G4">
+        <v>166309</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>142752</v>
+      </c>
+      <c r="F7">
+        <v>10874</v>
+      </c>
+      <c r="G7">
+        <v>153626</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>141478</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1577</v>
+      </c>
+      <c r="G8">
+        <v>143055</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>126390</v>
+      </c>
+      <c r="F9">
+        <v>40807</v>
+      </c>
+      <c r="G9">
+        <v>167197</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10">
+        <v>94594</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>27903</v>
+      </c>
+      <c r="G10">
+        <v>122497</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>171152</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>509</v>
+      </c>
+      <c r="G14">
+        <v>171661</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <v>176171</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>47169</v>
+      </c>
+      <c r="G19">
+        <v>223340</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>113749</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>113822</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>102925</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>102925</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>116259</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>116259</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25">
+        <v>129242</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>129242</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>156042</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>156042</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29">
+        <v>192567</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>192567</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32">
+        <v>189976</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>18585</v>
+      </c>
+      <c r="G32">
+        <v>208561</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33">
+        <v>115622</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>45066</v>
+      </c>
+      <c r="G33">
+        <v>160688</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34">
+        <v>174614</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>5956</v>
+      </c>
+      <c r="G34">
+        <v>180570</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35">
+        <v>130323</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>20019</v>
+      </c>
+      <c r="G35">
+        <v>150342</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36">
+        <v>146932</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>27898</v>
+      </c>
+      <c r="G36">
+        <v>174830</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>138659</v>
+      </c>
+      <c r="F37">
+        <v>21051</v>
+      </c>
+      <c r="G37">
+        <v>159710</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>153387</v>
+      </c>
+      <c r="F40">
+        <v>55111</v>
+      </c>
+      <c r="G40">
+        <v>208498</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>155697</v>
+      </c>
+      <c r="F41">
+        <v>56607</v>
+      </c>
+      <c r="G41">
+        <v>212304</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>166125</v>
+      </c>
+      <c r="F42">
+        <v>55084</v>
+      </c>
+      <c r="G42">
+        <v>221209</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>170968</v>
+      </c>
+      <c r="F43">
+        <v>65045</v>
+      </c>
+      <c r="G43">
+        <v>236013</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>111861</v>
+      </c>
+      <c r="F44">
+        <v>43443</v>
+      </c>
+      <c r="G44">
+        <v>155304</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>168055</v>
+      </c>
+      <c r="F45">
+        <v>67811</v>
+      </c>
+      <c r="G45">
+        <v>235866</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>158709</v>
+      </c>
+      <c r="F46">
+        <v>14630</v>
+      </c>
+      <c r="G46">
+        <v>173339</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>120869</v>
+      </c>
+      <c r="F47">
+        <v>11072</v>
+      </c>
+      <c r="G47">
+        <v>131941</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52">
+        <v>133013</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>22831</v>
+      </c>
+      <c r="G52">
+        <v>155844</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>163939</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>12017</v>
+      </c>
+      <c r="G53">
+        <v>175956</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>121846</v>
+      </c>
+      <c r="F56">
+        <v>9543</v>
+      </c>
+      <c r="G56">
+        <v>131389</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>122921</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>122921</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>68773</v>
+      </c>
+      <c r="F58">
+        <v>63968</v>
+      </c>
+      <c r="G58">
+        <v>132741</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>68718</v>
+      </c>
+      <c r="F59">
+        <v>43100</v>
+      </c>
+      <c r="G59">
+        <v>111818</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>72313</v>
+      </c>
+      <c r="F60">
+        <v>45258</v>
+      </c>
+      <c r="G60">
+        <v>117571</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>43809</v>
+      </c>
+      <c r="F61">
+        <v>40956</v>
+      </c>
+      <c r="G61">
+        <v>84765</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>95396</v>
+      </c>
+      <c r="F62">
+        <v>94622</v>
+      </c>
+      <c r="G62">
+        <v>190018</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63">
+        <v>110042</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>74571</v>
+      </c>
+      <c r="G63">
+        <v>184613</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64">
+        <v>108017</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>94615</v>
+      </c>
+      <c r="G64">
+        <v>202632</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65">
+        <v>131448</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>13486</v>
+      </c>
+      <c r="G65">
+        <v>144934</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66">
+        <v>151430</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>16067</v>
+      </c>
+      <c r="G66">
+        <v>167497</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68">
+        <v>125546</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>125546</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69">
+        <v>148206</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>47884</v>
+      </c>
+      <c r="G69">
+        <v>196090</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71">
+        <v>116763</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>33566</v>
+      </c>
+      <c r="G71">
+        <v>150329</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72">
+        <v>124942</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>18269</v>
+      </c>
+      <c r="G72">
+        <v>143211</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73">
+        <v>152017</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>12142</v>
+      </c>
+      <c r="G73">
+        <v>164159</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>123323</v>
+      </c>
+      <c r="F74">
+        <v>89</v>
+      </c>
+      <c r="G74">
+        <v>123412</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75">
+        <v>119046</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>15551</v>
+      </c>
+      <c r="G75">
+        <v>134597</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76">
+        <v>143097</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>14048</v>
+      </c>
+      <c r="G76">
+        <v>157145</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78">
+        <v>127562</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>14863</v>
+      </c>
+      <c r="G78">
+        <v>142425</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79">
+        <v>144149</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>27210</v>
+      </c>
+      <c r="G79">
+        <v>171359</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>121912</v>
+      </c>
+      <c r="F80">
+        <v>20060</v>
+      </c>
+      <c r="G80">
+        <v>141972</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82">
+        <v>127300</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1586</v>
+      </c>
+      <c r="G82">
+        <v>128886</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>120904</v>
+      </c>
+      <c r="F83">
+        <v>23356</v>
+      </c>
+      <c r="G83">
+        <v>144260</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84">
+        <v>96795</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>11732</v>
+      </c>
+      <c r="G84">
+        <v>108527</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85">
+        <v>140575</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>10351</v>
+      </c>
+      <c r="G85">
+        <v>150926</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>114428</v>
+      </c>
+      <c r="F86">
+        <v>21196</v>
+      </c>
+      <c r="G86">
+        <v>135624</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87">
+        <v>121208</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>10723</v>
+      </c>
+      <c r="G87">
+        <v>131931</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>66311</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>66311</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>72383</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>72383</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90">
+        <v>117092</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>10684</v>
+      </c>
+      <c r="G90">
+        <v>127776</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>68685</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>68685</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>55760</v>
+      </c>
+      <c r="F92">
+        <v>2833</v>
+      </c>
+      <c r="G92">
+        <v>58593</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95">
+        <v>113168</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>4829</v>
+      </c>
+      <c r="G95">
+        <v>117997</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96">
+        <v>103807</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>21039</v>
+      </c>
+      <c r="G96">
+        <v>124846</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>87521</v>
+      </c>
+      <c r="F97">
+        <v>3552</v>
+      </c>
+      <c r="G97">
+        <v>91073</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <v>108733</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2308</v>
+      </c>
+      <c r="G98">
+        <v>111041</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99">
+        <v>105530</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>3202</v>
+      </c>
+      <c r="G99">
+        <v>108732</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>100075</v>
+      </c>
+      <c r="F100">
+        <v>52108</v>
+      </c>
+      <c r="G100">
+        <v>152183</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101">
+        <v>135379</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>27919</v>
+      </c>
+      <c r="G101">
+        <v>163298</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>110941</v>
+      </c>
+      <c r="F103">
+        <v>320</v>
+      </c>
+      <c r="G103">
+        <v>111261</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>122031</v>
+      </c>
+      <c r="F104">
+        <v>19336</v>
+      </c>
+      <c r="G104">
+        <v>141367</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105">
+        <v>191224</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>30788</v>
+      </c>
+      <c r="G105">
+        <v>222012</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106">
+        <v>169834</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1327</v>
+      </c>
+      <c r="G106">
+        <v>171161</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C53F8-0A59-D74D-B90D-022CDA96A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA55DD-C206-E744-BEA6-CE3562FDF34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="3" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="4" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="5" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="6" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="5" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="162">
   <si>
     <t>Votes</t>
   </si>
@@ -502,36 +498,6 @@
   </si>
   <si>
     <t>29th</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of TOT1</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
   </si>
   <si>
     <t>STATE</t>
@@ -628,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,14 +613,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -691,31 +651,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,35 +692,11 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -791,1988 +707,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42879.366794328707" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="106" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J108" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="192567"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="170968"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="94622"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="236013" count="77">
-        <n v="161101"/>
-        <n v="198346"/>
-        <n v="166309"/>
-        <n v="0"/>
-        <n v="153626"/>
-        <n v="143055"/>
-        <n v="167197"/>
-        <n v="122497"/>
-        <n v="171661"/>
-        <m/>
-        <n v="223340"/>
-        <n v="113822"/>
-        <n v="102925"/>
-        <n v="116259"/>
-        <n v="129242"/>
-        <n v="156042"/>
-        <n v="192567"/>
-        <n v="208561"/>
-        <n v="160688"/>
-        <n v="180570"/>
-        <n v="150342"/>
-        <n v="174830"/>
-        <n v="159710"/>
-        <n v="208498"/>
-        <n v="212304"/>
-        <n v="221209"/>
-        <n v="236013"/>
-        <n v="155304"/>
-        <n v="235866"/>
-        <n v="173339"/>
-        <n v="131941"/>
-        <n v="155844"/>
-        <n v="175956"/>
-        <n v="131389"/>
-        <n v="122921"/>
-        <n v="132741"/>
-        <n v="111818"/>
-        <n v="117571"/>
-        <n v="84765"/>
-        <n v="190018"/>
-        <n v="184613"/>
-        <n v="202632"/>
-        <n v="144934"/>
-        <n v="167497"/>
-        <n v="125546"/>
-        <n v="196090"/>
-        <n v="150329"/>
-        <n v="143211"/>
-        <n v="164159"/>
-        <n v="123412"/>
-        <n v="134597"/>
-        <n v="157145"/>
-        <n v="142425"/>
-        <n v="171359"/>
-        <n v="141972"/>
-        <n v="128886"/>
-        <n v="144260"/>
-        <n v="108527"/>
-        <n v="150926"/>
-        <n v="135624"/>
-        <n v="131931"/>
-        <n v="66311"/>
-        <n v="72383"/>
-        <n v="127776"/>
-        <n v="68685"/>
-        <n v="58593"/>
-        <n v="117997"/>
-        <n v="124846"/>
-        <n v="91073"/>
-        <n v="111041"/>
-        <n v="108732"/>
-        <n v="152183"/>
-        <n v="163298"/>
-        <n v="111261"/>
-        <n v="141367"/>
-        <n v="222012"/>
-        <n v="171161"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="106">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="4th"/>
-    <n v="139705"/>
-    <n v="0"/>
-    <n v="21396"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="6th"/>
-    <n v="178171"/>
-    <n v="0"/>
-    <n v="20175"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="153735"/>
-    <n v="12574"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="142752"/>
-    <n v="10874"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="3rd"/>
-    <n v="141478"/>
-    <n v="0"/>
-    <n v="1577"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="126390"/>
-    <n v="40807"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="49th"/>
-    <n v="94594"/>
-    <n v="0"/>
-    <n v="27903"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="4th"/>
-    <n v="171152"/>
-    <n v="0"/>
-    <n v="509"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="10th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="11th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="12th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="14th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="16th"/>
-    <n v="176171"/>
-    <n v="0"/>
-    <n v="47169"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="113749"/>
-    <n v="73"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="20th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="102925"/>
-    <n v="0"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="116259"/>
-    <n v="0"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="10th"/>
-    <n v="129242"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="156042"/>
-    <n v="0"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="18th"/>
-    <n v="192567"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="1st"/>
-    <n v="189976"/>
-    <n v="0"/>
-    <n v="18585"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="6th"/>
-    <n v="115622"/>
-    <n v="0"/>
-    <n v="45066"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="1st"/>
-    <n v="174614"/>
-    <n v="0"/>
-    <n v="5956"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="3rd"/>
-    <n v="130323"/>
-    <n v="0"/>
-    <n v="20019"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="6th"/>
-    <n v="146932"/>
-    <n v="0"/>
-    <n v="27898"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="138659"/>
-    <n v="21051"/>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="153387"/>
-    <n v="55111"/>
-    <x v="23"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="155697"/>
-    <n v="56607"/>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="166125"/>
-    <n v="55084"/>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="170968"/>
-    <n v="65045"/>
-    <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="111861"/>
-    <n v="43443"/>
-    <x v="27"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="168055"/>
-    <n v="67811"/>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="158709"/>
-    <n v="14630"/>
-    <x v="29"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="120869"/>
-    <n v="11072"/>
-    <x v="30"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="1st"/>
-    <n v="133013"/>
-    <n v="0"/>
-    <n v="22831"/>
-    <x v="31"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="3rd"/>
-    <n v="163939"/>
-    <n v="0"/>
-    <n v="12017"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="121846"/>
-    <n v="9543"/>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="122921"/>
-    <n v="0"/>
-    <x v="34"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="68773"/>
-    <n v="63968"/>
-    <x v="35"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="68718"/>
-    <n v="43100"/>
-    <x v="36"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="72313"/>
-    <n v="45258"/>
-    <x v="37"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="43809"/>
-    <n v="40956"/>
-    <x v="38"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="18th"/>
-    <n v="0"/>
-    <n v="95396"/>
-    <n v="94622"/>
-    <x v="39"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="23rd"/>
-    <n v="110042"/>
-    <n v="0"/>
-    <n v="74571"/>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="24th"/>
-    <n v="108017"/>
-    <n v="0"/>
-    <n v="94615"/>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="3rd"/>
-    <n v="131448"/>
-    <n v="0"/>
-    <n v="13486"/>
-    <x v="42"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="6th"/>
-    <n v="151430"/>
-    <n v="0"/>
-    <n v="16067"/>
-    <x v="43"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="18th"/>
-    <n v="125546"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="3rd"/>
-    <n v="148206"/>
-    <n v="0"/>
-    <n v="47884"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="3rd"/>
-    <n v="116763"/>
-    <n v="0"/>
-    <n v="33566"/>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="5th"/>
-    <n v="124942"/>
-    <n v="0"/>
-    <n v="18269"/>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="10th"/>
-    <n v="152017"/>
-    <n v="0"/>
-    <n v="12142"/>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="14th"/>
-    <n v="0"/>
-    <n v="123323"/>
-    <n v="89"/>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="16th"/>
-    <n v="119046"/>
-    <n v="0"/>
-    <n v="15551"/>
-    <x v="50"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="19th"/>
-    <n v="143097"/>
-    <n v="0"/>
-    <n v="14048"/>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="1st"/>
-    <n v="127562"/>
-    <n v="0"/>
-    <n v="14863"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="2nd"/>
-    <n v="144149"/>
-    <n v="0"/>
-    <n v="27210"/>
-    <x v="53"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="121912"/>
-    <n v="20060"/>
-    <x v="54"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="1st"/>
-    <n v="127300"/>
-    <n v="0"/>
-    <n v="1586"/>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="120904"/>
-    <n v="23356"/>
-    <x v="56"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="7th"/>
-    <n v="96795"/>
-    <n v="0"/>
-    <n v="11732"/>
-    <x v="57"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="8th"/>
-    <n v="140575"/>
-    <n v="0"/>
-    <n v="10351"/>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="114428"/>
-    <n v="21196"/>
-    <x v="59"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="12th"/>
-    <n v="121208"/>
-    <n v="0"/>
-    <n v="10723"/>
-    <x v="60"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="15th"/>
-    <n v="0"/>
-    <n v="66311"/>
-    <n v="0"/>
-    <x v="61"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="72383"/>
-    <n v="0"/>
-    <x v="62"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="19th"/>
-    <n v="117092"/>
-    <n v="0"/>
-    <n v="10684"/>
-    <x v="63"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="68685"/>
-    <n v="0"/>
-    <x v="64"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="55760"/>
-    <n v="2833"/>
-    <x v="65"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="1st"/>
-    <n v="113168"/>
-    <n v="0"/>
-    <n v="4829"/>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="2nd"/>
-    <n v="103807"/>
-    <n v="0"/>
-    <n v="21039"/>
-    <x v="67"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="87521"/>
-    <n v="3552"/>
-    <x v="68"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="4th"/>
-    <n v="108733"/>
-    <n v="0"/>
-    <n v="2308"/>
-    <x v="69"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="6th"/>
-    <n v="105530"/>
-    <n v="0"/>
-    <n v="3202"/>
-    <x v="70"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="100075"/>
-    <n v="52108"/>
-    <x v="71"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="11th"/>
-    <n v="135379"/>
-    <n v="0"/>
-    <n v="27919"/>
-    <x v="72"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="110941"/>
-    <n v="320"/>
-    <x v="73"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="122031"/>
-    <n v="19336"/>
-    <x v="74"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="5th"/>
-    <n v="191224"/>
-    <n v="0"/>
-    <n v="30788"/>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="6th"/>
-    <n v="169834"/>
-    <n v="0"/>
-    <n v="1327"/>
-    <x v="76"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="78">
-        <item x="3"/>
-        <item x="65"/>
-        <item x="61"/>
-        <item x="64"/>
-        <item x="62"/>
-        <item x="38"/>
-        <item x="68"/>
-        <item x="12"/>
-        <item x="57"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="73"/>
-        <item x="36"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="37"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="34"/>
-        <item x="49"/>
-        <item x="67"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="55"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="60"/>
-        <item x="30"/>
-        <item x="35"/>
-        <item x="50"/>
-        <item x="59"/>
-        <item x="74"/>
-        <item x="54"/>
-        <item x="52"/>
-        <item x="5"/>
-        <item x="47"/>
-        <item x="56"/>
-        <item x="42"/>
-        <item x="46"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="71"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="15"/>
-        <item x="51"/>
-        <item x="22"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="72"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="43"/>
-        <item x="76"/>
-        <item x="53"/>
-        <item x="8"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="16"/>
-        <item x="45"/>
-        <item x="1"/>
-        <item x="41"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="75"/>
-        <item x="10"/>
-        <item x="28"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of TOT1" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3038,13 +972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3054,15 +988,12 @@
     <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="12" customWidth="1"/>
-    <col min="12" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26" style="12" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="12" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3073,23 +1004,15 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
-        <v>152</v>
-      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,35 +1031,23 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>156</v>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3156,34 +1067,21 @@
       <c r="F3" s="1">
         <v>1268802</v>
       </c>
-      <c r="G3" s="13">
-        <v>525756</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G52" si="1">J3-H3-I3</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="36">
-        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>185761.5</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3203,34 +1101,21 @@
       <c r="F4" s="1">
         <v>227725</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
+      <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>227725</v>
-      </c>
-      <c r="K4" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3250,34 +1135,21 @@
       <c r="F5" s="1">
         <v>1194400</v>
       </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>149300</v>
-      </c>
-      <c r="K5" s="12">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3297,34 +1169,21 @@
       <c r="F6" s="1">
         <v>688276</v>
       </c>
-      <c r="G6" s="13">
-        <v>296681</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="36">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>195797.5</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3344,37 +1203,24 @@
       <c r="F7" s="1">
         <v>7258417</v>
       </c>
-      <c r="G7" s="13">
-        <v>289694</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>136641.62745098039</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>33</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>53</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K7" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3394,34 +1240,21 @@
       <c r="F8" s="1">
         <v>1397088</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>199584</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3441,34 +1274,21 @@
       <c r="F9" s="1">
         <v>989309</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>197861.8</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3488,34 +1308,21 @@
       <c r="F10" s="1">
         <v>228405</v>
       </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>228405</v>
-      </c>
-      <c r="K10" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3535,34 +1342,21 @@
       <c r="F11" s="1">
         <v>3766558</v>
       </c>
-      <c r="G11" s="13">
-        <v>508823</v>
-      </c>
-      <c r="H11" s="1">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="36">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>203608.4375</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3582,34 +1376,21 @@
       <c r="F12" s="1">
         <v>1918917</v>
       </c>
-      <c r="G12" s="13">
-        <v>348426</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="36">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>157049.1</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3629,34 +1410,21 @@
       <c r="F13" s="1">
         <v>359984</v>
       </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36">
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>179992</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3676,34 +1444,21 @@
       <c r="F14" s="1">
         <v>405023</v>
       </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>202511.5</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3723,34 +1478,21 @@
       <c r="F15" s="1">
         <v>3429136</v>
       </c>
-      <c r="G15" s="13">
-        <v>348609</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>181207.4705882353</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3770,34 +1512,21 @@
       <c r="F16" s="1">
         <v>1521353</v>
       </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>169039.22222222222</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3817,34 +1546,21 @@
       <c r="F17" s="1">
         <v>1012622</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>202524.4</v>
-      </c>
-      <c r="K17" s="12">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3864,34 +1580,21 @@
       <c r="F18" s="1">
         <v>829890</v>
       </c>
-      <c r="G18" s="13">
-        <v>208561</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
+      <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>207109.66666666666</v>
-      </c>
-      <c r="K18" s="12">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3911,34 +1614,21 @@
       <c r="F19" s="1">
         <v>1094242</v>
       </c>
-      <c r="G19" s="13">
-        <v>160688</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36">
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>186710.8</v>
-      </c>
-      <c r="K19" s="12">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3958,34 +1648,21 @@
       <c r="F20" s="1">
         <v>1140163</v>
       </c>
-      <c r="G20" s="13">
-        <v>665452</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="36">
+      <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>158237</v>
-      </c>
-      <c r="K20" s="12">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4005,34 +1682,21 @@
       <c r="F21" s="1">
         <v>495294</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="G21" s="12">
         <f t="shared" si="1"/>
-        <v>247647</v>
-      </c>
-      <c r="K21" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -4052,34 +1716,21 @@
       <c r="F22" s="1">
         <v>1659113</v>
       </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
+      <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>207389.125</v>
-      </c>
-      <c r="K22" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L22">
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4099,34 +1750,21 @@
       <c r="F23" s="1">
         <v>2220326</v>
       </c>
-      <c r="G23" s="13">
-        <v>1269194</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>6</v>
-      </c>
-      <c r="J23" s="36">
+      <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>237783</v>
-      </c>
-      <c r="K23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -4146,34 +1784,21 @@
       <c r="F24" s="1">
         <v>3055897</v>
       </c>
-      <c r="G24" s="13">
-        <v>305280</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>211585.92307692306</v>
-      </c>
-      <c r="K24" s="12">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4193,34 +1818,21 @@
       <c r="F25" s="1">
         <v>2201638</v>
       </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36">
+      <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>275204.75</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4240,34 +1852,21 @@
       <c r="F26" s="1">
         <v>677636</v>
       </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="36">
+      <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>169409</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4287,34 +1886,21 @@
       <c r="F27" s="1">
         <v>1853563</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>205951.44444444444</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4334,34 +1920,21 @@
       <c r="F28" s="1">
         <v>331321</v>
       </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="36">
+      <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>331321</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4381,34 +1954,21 @@
       <c r="F29" s="1">
         <v>473814</v>
       </c>
-      <c r="G29" s="13">
-        <v>331800</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="36">
+      <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>142014</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4428,34 +1988,21 @@
       <c r="F30" s="1">
         <v>501853</v>
       </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>167284.33333333334</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4475,34 +2022,21 @@
       <c r="F31" s="1">
         <v>443443</v>
       </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>221721.5</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4522,34 +2056,21 @@
       <c r="F32" s="1">
         <v>2006059</v>
       </c>
-      <c r="G32" s="13">
-        <v>131389</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="36">
+      <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>156222.5</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4569,34 +2090,21 @@
       <c r="F33" s="1">
         <v>437495</v>
       </c>
-      <c r="G33" s="13">
-        <v>122921</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>157287</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4616,34 +2124,21 @@
       <c r="F34" s="1">
         <v>4701009</v>
       </c>
-      <c r="G34" s="13">
-        <v>1024158</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1">
-        <v>5</v>
-      </c>
-      <c r="J34" s="36">
+      <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>167129.59090909091</v>
-      </c>
-      <c r="K34" s="12">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>19</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4663,34 +2158,21 @@
       <c r="F35" s="1">
         <v>2244149</v>
       </c>
-      <c r="G35" s="13">
-        <v>312431</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36">
-        <f t="shared" ref="J35:J52" si="3">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>175610.72727272726</v>
-      </c>
-      <c r="K35" s="12">
-        <f t="shared" si="2"/>
+      <c r="G35" s="12">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4710,37 +2192,24 @@
       <c r="F36" s="1">
         <v>231030</v>
       </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="36">
-        <f t="shared" si="3"/>
-        <v>231030</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" s="12" t="s">
+      <c r="G36" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4760,34 +2229,21 @@
       <c r="F37" s="1">
         <v>3158023</v>
       </c>
-      <c r="G37" s="13">
-        <v>125546</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="36">
-        <f t="shared" si="3"/>
-        <v>178381</v>
-      </c>
-      <c r="K37" s="12">
-        <f t="shared" si="2"/>
+      <c r="G37" s="12">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>6</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4807,34 +2263,21 @@
       <c r="F38" s="1">
         <v>1001852</v>
       </c>
-      <c r="G38" s="13">
-        <v>196090</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="36">
-        <f t="shared" si="3"/>
-        <v>201440.5</v>
-      </c>
-      <c r="K38" s="12">
-        <f t="shared" si="2"/>
+      <c r="G38" s="12">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -4854,34 +2297,21 @@
       <c r="F39" s="1">
         <v>1240315</v>
       </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="36">
-        <f t="shared" si="3"/>
-        <v>248063</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4901,34 +2331,21 @@
       <c r="F40" s="1">
         <v>3310313</v>
       </c>
-      <c r="G40" s="13">
-        <v>872853</v>
-      </c>
-      <c r="H40" s="1">
-        <v>5</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="36">
-        <f t="shared" si="3"/>
-        <v>187496.92307692306</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="2"/>
+      <c r="G40" s="12">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>7</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -4948,34 +2365,21 @@
       <c r="F41" s="1">
         <v>328743</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36">
-        <f t="shared" si="3"/>
-        <v>164371.5</v>
-      </c>
-      <c r="K41" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -4995,34 +2399,21 @@
       <c r="F42" s="1">
         <v>984415</v>
       </c>
-      <c r="G42" s="13">
-        <v>455756</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="G42" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H42">
         <v>2</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="36">
-        <f t="shared" si="3"/>
-        <v>176219.66666666666</v>
-      </c>
-      <c r="K42" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -5042,34 +2433,21 @@
       <c r="F43" s="1">
         <v>336691</v>
       </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="36">
-        <f t="shared" si="3"/>
-        <v>336691</v>
-      </c>
-      <c r="K43" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G43" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5089,34 +2467,21 @@
       <c r="F44" s="1">
         <v>1529390</v>
       </c>
-      <c r="G44" s="13">
-        <v>273146</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="36">
-        <f t="shared" si="3"/>
-        <v>179463.42857142858</v>
-      </c>
-      <c r="K44" s="12">
-        <f t="shared" si="2"/>
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>5</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -5136,34 +2501,21 @@
       <c r="F45" s="1">
         <v>4295210</v>
       </c>
-      <c r="G45" s="13">
-        <v>920756</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1">
-        <v>5</v>
-      </c>
-      <c r="J45" s="36">
-        <f t="shared" si="3"/>
-        <v>146715.39130434784</v>
-      </c>
-      <c r="K45" s="12">
-        <f t="shared" si="2"/>
+      <c r="G45" s="12">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>17</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -5183,34 +2535,21 @@
       <c r="F46" s="1">
         <v>557153</v>
       </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="36">
-        <f t="shared" si="3"/>
-        <v>185717.66666666666</v>
-      </c>
-      <c r="K46" s="12">
-        <f t="shared" si="2"/>
+      <c r="G46" s="12">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -5230,34 +2569,21 @@
       <c r="F47" s="1">
         <v>225255</v>
       </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="36">
-        <f t="shared" si="3"/>
-        <v>225255</v>
-      </c>
-      <c r="K47" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G47" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -5277,34 +2603,21 @@
       <c r="F48" s="1">
         <v>1516482</v>
       </c>
-      <c r="G48" s="13">
-        <v>869170</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2</v>
-      </c>
-      <c r="J48" s="36">
-        <f t="shared" si="3"/>
-        <v>161828</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" si="2"/>
+      <c r="G48" s="12">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5324,34 +2637,21 @@
       <c r="F49" s="1">
         <v>1739116</v>
       </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="36">
-        <f t="shared" si="3"/>
-        <v>193235.11111111112</v>
-      </c>
-      <c r="K49" s="12">
-        <f t="shared" si="2"/>
+      <c r="G49" s="12">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5371,34 +2671,21 @@
       <c r="F50" s="1">
         <v>399949</v>
       </c>
-      <c r="G50" s="13">
-        <v>111261</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="36">
-        <f t="shared" si="3"/>
-        <v>144344</v>
-      </c>
-      <c r="K50" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="G50" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>2</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -5418,34 +2705,21 @@
       <c r="F51" s="1">
         <v>1637546</v>
       </c>
-      <c r="G51" s="13">
-        <v>534540</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="36">
-        <f t="shared" si="3"/>
-        <v>220601.2</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="2"/>
+      <c r="G51" s="12">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -5465,37 +2739,24 @@
       <c r="F52" s="1">
         <v>182152</v>
       </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="36">
-        <f t="shared" si="3"/>
-        <v>182152</v>
-      </c>
-      <c r="K52" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>110</v>
       </c>
@@ -5505,51 +2766,36 @@
         <v>37091270</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="2">SUM(D3:D52)</f>
         <v>33642142</v>
       </c>
       <c r="E54" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3973143</v>
       </c>
       <c r="F54" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>74706555</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="19">
         <f>SUM(G3:G52)</f>
-        <v>11208981</v>
-      </c>
-      <c r="H54" s="17">
-        <f t="shared" ref="H54:I54" si="5">SUM(H3:H52)</f>
-        <v>44</v>
-      </c>
-      <c r="I54" s="17">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="19">
-        <f>SUM(K3:K52)</f>
         <v>229</v>
       </c>
-      <c r="L54" s="15">
-        <f t="shared" ref="L54:N54" si="6">SUM(L3:L52)</f>
+      <c r="H54" s="15">
+        <f t="shared" ref="H54:J54" si="3">SUM(H3:H52)</f>
         <v>205</v>
       </c>
-      <c r="M54" s="15">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="15">
-        <f t="shared" si="6"/>
+      <c r="I54" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="19"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>111</v>
       </c>
@@ -5564,25 +2810,21 @@
       <c r="F57" s="22">
         <v>74706555</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="23">
+      <c r="G57" s="23">
         <v>229</v>
       </c>
-      <c r="L57" s="20">
+      <c r="H57" s="20">
         <v>205</v>
       </c>
-      <c r="M57" s="20">
-        <v>1</v>
-      </c>
-      <c r="N57" s="20">
+      <c r="I57" s="20">
+        <v>1</v>
+      </c>
+      <c r="J57" s="20">
         <v>435</v>
       </c>
-      <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K57" s="23"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5601,20 +2843,20 @@
         <f>F54-F57</f>
         <v>0</v>
       </c>
-      <c r="K58" s="12">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+      <c r="G58" s="12">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
@@ -5626,13 +2868,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5643,10 +2885,10 @@
     <col min="6" max="6" width="10.83203125" style="26"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="10.83203125" style="12"/>
-    <col min="11" max="11" width="52.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5665,7 +2907,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5700,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5732,8 +2974,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5765,8 +3011,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5798,8 +3048,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5831,8 +3085,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5864,8 +3122,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5897,8 +3159,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" ref="F9" si="2">G9-SUM(D9:E9)</f>
+        <f t="shared" ref="F9" si="3">G9-SUM(D9:E9)</f>
         <v>1577</v>
       </c>
       <c r="G9" s="1">
@@ -5930,8 +3196,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5963,8 +3233,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5981,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" ref="F11" si="3">G11-SUM(D11:E11)</f>
+        <f t="shared" ref="F11" si="4">G11-SUM(D11:E11)</f>
         <v>27903</v>
       </c>
       <c r="G11" s="1">
@@ -5996,8 +3270,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6029,8 +3307,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -6062,8 +3344,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6095,8 +3381,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -6128,8 +3418,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -6155,8 +3449,12 @@
       <c r="K16" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
@@ -6182,8 +3480,12 @@
       <c r="K17" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>26</v>
       </c>
@@ -6209,8 +3511,12 @@
       <c r="K18" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>26</v>
       </c>
@@ -6236,8 +3542,12 @@
       <c r="K19" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6254,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" ref="F20:F21" si="4">G20-SUM(D20:E20)</f>
+        <f t="shared" ref="F20:F21" si="5">G20-SUM(D20:E20)</f>
         <v>47169</v>
       </c>
       <c r="G20" s="1">
@@ -6269,8 +3579,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6287,7 +3601,7 @@
         <v>113749</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="G21" s="1">
@@ -6302,8 +3616,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
@@ -6329,8 +3647,12 @@
       <c r="K22" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>26</v>
       </c>
@@ -6356,8 +3678,12 @@
       <c r="K23" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6389,8 +3715,12 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -6407,7 +3737,7 @@
         <v>116259</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" ref="F25:F26" si="5">G25-SUM(D25:E25)</f>
+        <f t="shared" ref="F25:F26" si="6">G25-SUM(D25:E25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="1">
@@ -6422,8 +3752,12 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6440,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
@@ -6455,8 +3789,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -6488,8 +3826,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6521,8 +3863,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6554,8 +3900,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -6572,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" ref="F30" si="6">G30-SUM(D30:E30)</f>
+        <f t="shared" ref="F30" si="7">G30-SUM(D30:E30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
@@ -6587,8 +3937,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -6620,8 +3974,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -6653,8 +4011,12 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -6686,8 +4048,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -6719,8 +4085,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -6752,8 +4122,12 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="14">
-        <f t="shared" ref="F36:F38" si="7">G36-SUM(D36:E36)</f>
+        <f t="shared" ref="F36:F38" si="8">G36-SUM(D36:E36)</f>
         <v>20019</v>
       </c>
       <c r="G36" s="1">
@@ -6785,8 +4159,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -6803,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27898</v>
       </c>
       <c r="G37" s="1">
@@ -6818,8 +4196,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6836,7 +4218,7 @@
         <v>138659</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21051</v>
       </c>
       <c r="G38" s="1">
@@ -6851,8 +4233,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -6884,8 +4270,12 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -6917,8 +4307,12 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -6950,8 +4344,12 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -6968,7 +4366,7 @@
         <v>155697</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" ref="F42:F46" si="8">G42-SUM(D42:E42)</f>
+        <f t="shared" ref="F42:F46" si="9">G42-SUM(D42:E42)</f>
         <v>56607</v>
       </c>
       <c r="G42" s="1">
@@ -6983,8 +4381,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -7001,7 +4403,7 @@
         <v>166125</v>
       </c>
       <c r="F43" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55084</v>
       </c>
       <c r="G43" s="1">
@@ -7016,8 +4418,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -7034,7 +4440,7 @@
         <v>170968</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65045</v>
       </c>
       <c r="G44" s="1">
@@ -7049,8 +4455,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -7067,7 +4477,7 @@
         <v>111861</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43443</v>
       </c>
       <c r="G45" s="1">
@@ -7082,8 +4492,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -7100,7 +4514,7 @@
         <v>168055</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67811</v>
       </c>
       <c r="G46" s="1">
@@ -7115,8 +4529,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -7148,8 +4566,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7166,7 +4588,7 @@
         <v>120869</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" ref="F48" si="9">G48-SUM(D48:E48)</f>
+        <f t="shared" ref="F48" si="10">G48-SUM(D48:E48)</f>
         <v>11072</v>
       </c>
       <c r="G48" s="1">
@@ -7181,8 +4603,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -7214,8 +4640,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -7247,8 +4677,12 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -7280,8 +4714,12 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -7313,8 +4751,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -7346,8 +4788,12 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -7364,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" ref="F54" si="10">G54-SUM(D54:E54)</f>
+        <f t="shared" ref="F54" si="11">G54-SUM(D54:E54)</f>
         <v>12017</v>
       </c>
       <c r="G54" s="1">
@@ -7379,8 +4825,12 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -7412,8 +4862,12 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -7445,8 +4899,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -7478,8 +4936,12 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -7511,8 +4973,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -7547,8 +5013,12 @@
       <c r="K59" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -7565,7 +5035,7 @@
         <v>68718</v>
       </c>
       <c r="F60" s="14">
-        <f t="shared" ref="F60:F65" si="11">G60-SUM(D60:E60)</f>
+        <f t="shared" ref="F60:F65" si="12">G60-SUM(D60:E60)</f>
         <v>43100</v>
       </c>
       <c r="G60" s="1">
@@ -7580,8 +5050,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -7598,7 +5072,7 @@
         <v>72313</v>
       </c>
       <c r="F61" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45258</v>
       </c>
       <c r="G61" s="1">
@@ -7613,8 +5087,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -7631,7 +5109,7 @@
         <v>43809</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40956</v>
       </c>
       <c r="G62" s="1">
@@ -7646,8 +5124,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -7664,7 +5146,7 @@
         <v>95396</v>
       </c>
       <c r="F63" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94622</v>
       </c>
       <c r="G63" s="1">
@@ -7679,8 +5161,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -7697,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74571</v>
       </c>
       <c r="G64" s="1">
@@ -7712,8 +5198,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -7730,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94615</v>
       </c>
       <c r="G65" s="1">
@@ -7745,8 +5235,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -7778,8 +5272,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -7796,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" ref="F67" si="12">G67-SUM(D67:E67)</f>
+        <f t="shared" ref="F67" si="13">G67-SUM(D67:E67)</f>
         <v>16067</v>
       </c>
       <c r="G67" s="1">
@@ -7811,8 +5309,12 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -7844,8 +5346,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L108" si="14">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -7877,8 +5383,12 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -7910,8 +5420,12 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -7943,8 +5457,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -7976,8 +5494,12 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -7994,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="14">
-        <f t="shared" ref="F73:F77" si="13">G73-SUM(D73:E73)</f>
+        <f t="shared" ref="F73:F77" si="15">G73-SUM(D73:E73)</f>
         <v>18269</v>
       </c>
       <c r="G73" s="1">
@@ -8009,8 +5531,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -8027,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12142</v>
       </c>
       <c r="G74" s="1">
@@ -8042,8 +5568,12 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -8060,7 +5590,7 @@
         <v>123323</v>
       </c>
       <c r="F75" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="G75" s="1">
@@ -8075,8 +5605,12 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -8093,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15551</v>
       </c>
       <c r="G76" s="1">
@@ -8108,8 +5642,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -8126,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14048</v>
       </c>
       <c r="G77" s="1">
@@ -8141,8 +5679,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -8174,8 +5716,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -8207,8 +5753,12 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -8225,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="14">
-        <f t="shared" ref="F80:F81" si="14">G80-SUM(D80:E80)</f>
+        <f t="shared" ref="F80:F81" si="16">G80-SUM(D80:E80)</f>
         <v>27210</v>
       </c>
       <c r="G80" s="1">
@@ -8240,8 +5790,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -8258,7 +5812,7 @@
         <v>121912</v>
       </c>
       <c r="F81" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20060</v>
       </c>
       <c r="G81" s="1">
@@ -8273,8 +5827,12 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -8306,8 +5864,12 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -8339,8 +5901,12 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -8357,7 +5923,7 @@
         <v>120904</v>
       </c>
       <c r="F84" s="14">
-        <f t="shared" ref="F84" si="15">G84-SUM(D84:E84)</f>
+        <f t="shared" ref="F84" si="17">G84-SUM(D84:E84)</f>
         <v>23356</v>
       </c>
       <c r="G84" s="1">
@@ -8372,8 +5938,12 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -8405,8 +5975,12 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -8423,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="14">
-        <f t="shared" ref="F86:F93" si="16">G86-SUM(D86:E86)</f>
+        <f t="shared" ref="F86:F93" si="18">G86-SUM(D86:E86)</f>
         <v>10351</v>
       </c>
       <c r="G86" s="1">
@@ -8438,8 +6012,12 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L86" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -8456,7 +6034,7 @@
         <v>114428</v>
       </c>
       <c r="F87" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21196</v>
       </c>
       <c r="G87" s="1">
@@ -8471,8 +6049,12 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -8489,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10723</v>
       </c>
       <c r="G88" s="1">
@@ -8504,8 +6086,12 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L88" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -8522,7 +6108,7 @@
         <v>66311</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
@@ -8537,8 +6123,12 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -8555,7 +6145,7 @@
         <v>72383</v>
       </c>
       <c r="F90" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
@@ -8570,8 +6160,12 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L90" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -8588,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10684</v>
       </c>
       <c r="G91" s="1">
@@ -8603,8 +6197,12 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -8621,7 +6219,7 @@
         <v>68685</v>
       </c>
       <c r="F92" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G92" s="1">
@@ -8636,8 +6234,12 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L92" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -8654,7 +6256,7 @@
         <v>55760</v>
       </c>
       <c r="F93" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2833</v>
       </c>
       <c r="G93" s="1">
@@ -8669,8 +6271,12 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -8702,8 +6308,12 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L94" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -8735,8 +6345,12 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L95" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -8768,8 +6382,12 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -8786,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="14">
-        <f t="shared" ref="F97:F102" si="17">G97-SUM(D97:E97)</f>
+        <f t="shared" ref="F97:F102" si="19">G97-SUM(D97:E97)</f>
         <v>21039</v>
       </c>
       <c r="G97" s="1">
@@ -8801,8 +6419,12 @@
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -8819,7 +6441,7 @@
         <v>87521</v>
       </c>
       <c r="F98" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3552</v>
       </c>
       <c r="G98" s="1">
@@ -8834,8 +6456,12 @@
       <c r="J98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -8852,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2308</v>
       </c>
       <c r="G99" s="1">
@@ -8867,8 +6493,12 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -8885,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3202</v>
       </c>
       <c r="G100" s="1">
@@ -8900,8 +6530,12 @@
       <c r="J100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -8918,7 +6552,7 @@
         <v>100075</v>
       </c>
       <c r="F101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>52108</v>
       </c>
       <c r="G101" s="1">
@@ -8933,8 +6567,12 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8951,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27919</v>
       </c>
       <c r="G102" s="1">
@@ -8966,8 +6604,12 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -8999,8 +6641,12 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -9032,8 +6678,12 @@
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -9065,8 +6715,12 @@
       <c r="J105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -9083,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="14">
-        <f t="shared" ref="F106:F107" si="18">G106-SUM(D106:E106)</f>
+        <f t="shared" ref="F106:F107" si="20">G106-SUM(D106:E106)</f>
         <v>30788</v>
       </c>
       <c r="G106" s="1">
@@ -9098,8 +6752,12 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -9116,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1327</v>
       </c>
       <c r="G107" s="1">
@@ -9131,8 +6789,12 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -9164,44 +6826,48 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L108" t="str">
+        <f t="shared" si="14"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="19"/>
       <c r="D110" s="16">
-        <f t="shared" ref="D110:J110" si="19">SUM(D3:D108)</f>
+        <f t="shared" ref="D110:J110" si="21">SUM(D3:D108)</f>
         <v>5510409</v>
       </c>
       <c r="E110" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4014232</v>
       </c>
       <c r="F110" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1684340</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11208981</v>
       </c>
       <c r="H110" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="I110" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K110" s="19"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C112" s="25"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
@@ -9215,910 +6881,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>525756</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>296681</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>289694</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1">
-        <v>508823</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>348426</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1">
-        <v>348609</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1">
-        <v>208561</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>160688</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1">
-        <v>665452</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1269194</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1">
-        <v>305280</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>331800</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1">
-        <v>131389</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1">
-        <v>122921</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1024158</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1">
-        <v>312431</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="1">
-        <v>125546</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1">
-        <v>196090</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1">
-        <v>872853</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="1">
-        <v>455756</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="1">
-        <v>273146</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1">
-        <v>920756</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="1">
-        <v>869170</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1">
-        <v>111261</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1">
-        <v>534540</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="1">
-        <v>11208981</v>
-      </c>
-      <c r="D54">
-        <v>44</v>
-      </c>
-      <c r="E54">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C173EB5C-2F3C-F445-895E-90BA9F5B864E}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -10133,34 +6895,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11768,11 +8530,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E89F1-314C-BC44-A131-4DF725BADCA8}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11783,34 +8545,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2002 - 108th).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA55DD-C206-E744-BEA6-CE3562FDF34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F1BC8-3592-4845-A8CB-B4E351E7A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2868,13 +2868,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L108"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3053,7 +3054,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -6874,8 +6875,37 @@
       <c r="C113" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:J108" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J108" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10th"/>
+        <filter val="11th"/>
+        <filter val="12th"/>
+        <filter val="13th"/>
+        <filter val="14th"/>
+        <filter val="15th"/>
+        <filter val="16th"/>
+        <filter val="17th"/>
+        <filter val="18th"/>
+        <filter val="19th"/>
+        <filter val="1st"/>
+        <filter val="20th"/>
+        <filter val="21st"/>
+        <filter val="23rd"/>
+        <filter val="24th"/>
+        <filter val="29th"/>
+        <filter val="2nd"/>
+        <filter val="3rd"/>
+        <filter val="49th"/>
+        <filter val="4th"/>
+        <filter val="5th"/>
+        <filter val="6th"/>
+        <filter val="7th"/>
+        <filter val="8th"/>
+        <filter val="9th"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
